--- a/data/trans_camb/P55_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P55_6-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.308151751534882</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.077947577141147</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.128354370864004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 2,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 8,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 4,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.406746677782436</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.444567116849456</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.62826831512845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,63%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.465201939872216</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.900623421319356</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.145061231443928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 2,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; 11,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 5,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.03476626036736255</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01286705194371275</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01264232468871049</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.09795536134700784</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.08505069168931589</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07195880416763197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,72; 0,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-27,97; -2,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,08; -3,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.02672724880368679</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1105166342597308</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04806439620442849</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,93%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,41%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-10,23%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.569048109962639</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-12.0591876674089</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.385087924305669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-16,61; 0,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,42; -3,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-20,25; -3,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.24526995005528</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-25.79491342131812</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.846752885725</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.5123113706014857</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.938257405714118</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.852986846052461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 16,94</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-27,51; 5,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-14,04; 8,6</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07035354403300093</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1310938876818728</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1012666268701497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,98%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1726396936770487</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2749081076047346</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1898239400849639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,22; 21,13</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-29,22; 5,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 9,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.005575450058261407</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.03431462231230104</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.03167419415934647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.889884917628927</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-10.12997036879696</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.429114839630221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; 0,45</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 0,45</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-9,0; -0,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-17.69305806833112</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-28.91468565788824</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-15.13191347120583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-4,13%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-6,01%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-5,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.44955915285259</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.264953064816447</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.225276597874736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,55; 0,44</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 0,37</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; -0,64</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.03160017227349988</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1113632538119227</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03759793264220741</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1838523363924397</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3064459685257069</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1633922082338877</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1862482999542311</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.06266474246794997</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.09641721706582679</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.902389074900547</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.388378004913308</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-4.723288546175796</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.155791524358886</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.4895252949661</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-8.916759068728055</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.267302818770402</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2665470147645196</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.6737708426399505</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.04151564077099383</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.06130035527979884</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05196963580341511</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.09657836968490402</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1384051071691882</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0960992596935528</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.001948952018519232</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.002693587928144068</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.008108771642293539</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
